--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\cours B3\GoStyle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B42965-B1BA-4FED-97C0-CD54392D2556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE9FDFB-C7FF-4420-9C33-B51B485371FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71BA7578-8FCA-4010-8FB7-4F6B8900D84B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Android</t>
   </si>
@@ -47,42 +47,6 @@
     <t>IOS</t>
   </si>
   <si>
-    <t>Accessibilité</t>
-  </si>
-  <si>
-    <t>Open Source</t>
-  </si>
-  <si>
-    <t>Plus grande population visée</t>
-  </si>
-  <si>
-    <t>Clients plus jeune</t>
-  </si>
-  <si>
-    <t>Communauté de développeur</t>
-  </si>
-  <si>
-    <t>Pas standardisé</t>
-  </si>
-  <si>
-    <t>Rejet possible de l'appli</t>
-  </si>
-  <si>
-    <t>Gage de qualité</t>
-  </si>
-  <si>
-    <t>Compatibilité des écrans</t>
-  </si>
-  <si>
-    <t>Ecrans standardisés</t>
-  </si>
-  <si>
-    <t>Langages standardisés</t>
-  </si>
-  <si>
-    <t>Versionning</t>
-  </si>
-  <si>
     <t>Nécessite Xcode exlcu Mac</t>
   </si>
   <si>
@@ -92,37 +56,73 @@
     <t>Cout de publication sur le store important (100€ par an)</t>
   </si>
   <si>
-    <t>Code plus court</t>
-  </si>
-  <si>
-    <t>Lourd</t>
-  </si>
-  <si>
-    <t>Léger</t>
-  </si>
-  <si>
-    <t>Outils plus adaptés</t>
-  </si>
-  <si>
-    <t>Pas de ternaire</t>
-  </si>
-  <si>
-    <t>Moins de librairies</t>
-  </si>
-  <si>
     <t>Simple à prendre en main</t>
   </si>
   <si>
-    <t>Possibilités de fortes évolutions du langage</t>
-  </si>
-  <si>
-    <t>Connaissance du langage</t>
-  </si>
-  <si>
     <t>Java</t>
   </si>
   <si>
     <t>Kotlin</t>
+  </si>
+  <si>
+    <t>Accessibilité : Le langage pour Android est le Java, langage que tout notre groupe de développeur connait</t>
+  </si>
+  <si>
+    <t>Pas standardisé : le langage Java peut-être développé de multiples façons. Cela peut poser des problèmes de compatibilité entre les methodes utilisées par les développeurs.</t>
+  </si>
+  <si>
+    <t>Clients plus jeune ce qui correspond à la clientèle de GoStyle</t>
+  </si>
+  <si>
+    <t>Open Source : cela permet de mieux personnaliser l'application développée</t>
+  </si>
+  <si>
+    <t>Compatibilité des écrans : il existe environ 24 000 terminaux différents sous android</t>
+  </si>
+  <si>
+    <t>Langages standardisés : les langages présents sous IOS sont beaucoup plus cadrés ce qui favorise la qualité du code</t>
+  </si>
+  <si>
+    <t>Rejet possible de l'appli : si l'application n'est pas qualitative aux yeux de l'appstore, elle peut être refusée</t>
+  </si>
+  <si>
+    <t>Plus grande population visée :  environ 2,5 milliards d'utilisateurs</t>
+  </si>
+  <si>
+    <t>Versionning : la compatibilité inter-versions peut devenir difficile à maîtriser</t>
+  </si>
+  <si>
+    <t>Gage de qualité : l'application est vérifiée avant d'être publié</t>
+  </si>
+  <si>
+    <t>Communauté de développeur plus grande : aide et documentation plus présente</t>
+  </si>
+  <si>
+    <t>Ecrans standardisés : Les différences d'écrans sous IOS sont moindres</t>
+  </si>
+  <si>
+    <t>Connaissance du langage : langage travaillé en cours</t>
+  </si>
+  <si>
+    <t>Outils plus adaptés : certains outils et API en java sont plus adaptés au projet</t>
+  </si>
+  <si>
+    <t>Lourd : langage qui a besoin de plus de ressources pour être déployé et qui, en grande majorité prend plus de lignes de code</t>
+  </si>
+  <si>
+    <t>Code plus court : le langage prend moins de ligne de codes dans la majorité des cas</t>
+  </si>
+  <si>
+    <t>Léger : langage plus simple à déployer et nécissitant moins de ressources</t>
+  </si>
+  <si>
+    <t>Pas de ternaire ce qui diminue la lisibilité du code</t>
+  </si>
+  <si>
+    <t>Moins de librairies : le Kotlin est un langage plus niché et comporte donc moins de projets existant</t>
+  </si>
+  <si>
+    <t>Possibilités de fortes évolutions du langage : Le Kotlin est un langage plus jeune et donc moins stable</t>
   </si>
 </sst>
 </file>
@@ -353,8 +353,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -364,35 +394,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F991C82-D07F-47EC-8F72-3B1A372A3A78}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,228 +732,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
